--- a/src/copiesPerLocus_toSetup_swapping_etc.xlsx
+++ b/src/copiesPerLocus_toSetup_swapping_etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlrothfels/Box Sync/R_Python_etal/git_repositories/homologizer/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4895B56-D074-D84D-B154-C11158AD8B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4131E901-9342-7149-8FCD-ABF706B1AF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2160" windowWidth="30760" windowHeight="17920" xr2:uid="{AE534D98-65A7-4D43-BDD4-51ADCD2EEBC6}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
   <si>
     <t>APP_alloPPnet_version_reduced.nex</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>added, for the fourth tip</t>
+  </si>
+  <si>
+    <t>swap, because the allelic variation isn't clear (not sister to each other in either locus)</t>
+  </si>
+  <si>
+    <t>Added to the swapping</t>
   </si>
 </sst>
 </file>
@@ -653,8 +659,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1302,7 +1308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1395,8 +1401,14 @@
       <c r="F37" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1409,8 +1421,14 @@
       <c r="F38" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1464,7 +1482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -1472,7 +1490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1492,7 +1510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1526,7 +1544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1546,7 +1564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>50</v>
       </c>

--- a/src/copiesPerLocus_toSetup_swapping_etc.xlsx
+++ b/src/copiesPerLocus_toSetup_swapping_etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlrothfels/Box Sync/R_Python_etal/git_repositories/homologizer/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4131E901-9342-7149-8FCD-ABF706B1AF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61672C6-D9F5-494C-AE2F-8D6F2A6F3445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2160" windowWidth="30760" windowHeight="17920" xr2:uid="{AE534D98-65A7-4D43-BDD4-51ADCD2EEBC6}"/>
   </bookViews>
@@ -262,9 +262,6 @@
     <t>Fixed this -- _A was swapping with _A</t>
   </si>
   <si>
-    <t>Followup script?</t>
-  </si>
-  <si>
     <t>Do another analysis with a new tip created here, and see if it helps? (do model comparison with original version?)</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>Added to the swapping</t>
+  </si>
+  <si>
+    <t>v2 script</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -688,13 +688,13 @@
         <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
         <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1136,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>66</v>
@@ -1156,7 +1156,7 @@
         <v>60</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>66</v>
@@ -1225,7 +1225,7 @@
         <v>64</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1248,7 +1248,7 @@
         <v>64</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1402,10 +1402,10 @@
         <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1422,10 +1422,10 @@
         <v>61</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,10 +1484,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s">
         <v>73</v>
-      </c>
-      <c r="F42" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:8">
